--- a/historial_global.xlsx
+++ b/historial_global.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/978b2c2d6ef06774/Itba/Tecnología/hito/hitoFinalItba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{27802B42-3B21-454B-B2BB-30BD65EF7D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8995F663-0008-47AF-94A7-BDF569C71BDE}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{27802B42-3B21-454B-B2BB-30BD65EF7D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB69300-B087-44A9-B70A-0B52F86A9FCF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B8F39C2E-37AB-49F2-9179-5E3C55CDB0B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{B8F39C2E-37AB-49F2-9179-5E3C55CDB0B1}"/>
   </bookViews>
   <sheets>
     <sheet name="historial_global" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="Grafico de Lineas" sheetId="3" r:id="rId3"/>
     <sheet name="Gráfico de torta" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -623,8 +636,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -688,7 +701,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1343,7 +1356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1395,7 +1408,7 @@
             <c:numRef>
               <c:f>'Grafico de Lineas'!$A$2:$A$4</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>45821.785694444443</c:v>
@@ -1795,7 +1808,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1832,6 +1845,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-594C-4734-BF05-C71E311C3015}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1867,6 +1885,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-594C-4734-BF05-C71E311C3015}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4417,8 +4440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9BB252-835F-4978-B1F7-DBFDE5C2E6A4}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4825,10 +4848,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4917,8 +4940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61A0B1-09A1-449B-9D95-B3C7E815EE41}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4936,7 +4959,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45821.785694444443</v>
       </c>
       <c r="B2">
@@ -4944,7 +4967,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45821.792997685188</v>
       </c>
       <c r="B3">
@@ -4952,7 +4975,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45821.796122685184</v>
       </c>
       <c r="B4">
@@ -4973,7 +4996,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/historial_global.xlsx
+++ b/historial_global.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/978b2c2d6ef06774/Itba/Tecnología/hito/hitoFinalItba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{27802B42-3B21-454B-B2BB-30BD65EF7D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB69300-B087-44A9-B70A-0B52F86A9FCF}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="8_{27802B42-3B21-454B-B2BB-30BD65EF7D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121F3A47-24B4-4363-86C7-2960C3915109}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{B8F39C2E-37AB-49F2-9179-5E3C55CDB0B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{B8F39C2E-37AB-49F2-9179-5E3C55CDB0B1}"/>
   </bookViews>
   <sheets>
     <sheet name="historial_global" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>usuario</t>
   </si>
@@ -633,11 +633,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,7 +964,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -1112,7 +1113,6 @@
         <c:axId val="1938562895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1406,10 +1406,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Grafico de Lineas'!$A$2:$A$4</c:f>
+              <c:f>'Grafico de Lineas'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>45821.785694444443</c:v>
                 </c:pt>
@@ -1419,15 +1419,24 @@
                 <c:pt idx="2">
                   <c:v>45821.796122685184</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>45822.545532407406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45822.87222222222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Grafico de Lineas'!$B$2:$B$4</c:f>
+              <c:f>'Grafico de Lineas'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>20.350000000000001</c:v>
                 </c:pt>
@@ -1436,6 +1445,15 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,8 +1482,6 @@
         <c:axId val="337753039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45821.999305555553"/>
-          <c:min val="45821"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1571,6 +1587,7 @@
         <c:axId val="337757359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1677,6 +1694,7 @@
         <c:crossAx val="337753039"/>
         <c:crossesAt val="45821"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="3"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2199,16 +2217,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -3982,16 +4000,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4060,15 +4078,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77CC358B-5CF8-4E3D-8F47-EA142A1AF56B}" name="Table1" displayName="Table1" ref="A1:H14" totalsRowShown="0">
-  <autoFilter ref="A1:H14" xr:uid="{77CC358B-5CF8-4E3D-8F47-EA142A1AF56B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H14">
-    <sortCondition ref="G1:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77CC358B-5CF8-4E3D-8F47-EA142A1AF56B}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0">
+  <autoFilter ref="A1:H17" xr:uid="{77CC358B-5CF8-4E3D-8F47-EA142A1AF56B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H17">
+    <sortCondition ref="B1:B17"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5E870CEB-8F2E-4AA6-A3C7-C51C78DE49F5}" name="usuario"/>
@@ -4098,8 +4112,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B5D2C0B7-75E6-40F6-9163-D96A1C13F818}" name="Table4" displayName="Table4" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{B5D2C0B7-75E6-40F6-9163-D96A1C13F818}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B5D2C0B7-75E6-40F6-9163-D96A1C13F818}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{B5D2C0B7-75E6-40F6-9163-D96A1C13F818}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DBD5FE29-51ED-426A-9F40-6C9AA9561B91}" name="fecha_hora" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E9DF69DC-F540-4982-9C18-60341D0B1F30}" name="temperatura"/>
@@ -4438,10 +4452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9BB252-835F-4978-B1F7-DBFDE5C2E6A4}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4613,28 +4627,28 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>45821.786249999997</v>
+        <v>45821.788564814815</v>
       </c>
       <c r="D7">
-        <v>24.86</v>
+        <v>20.66</v>
       </c>
       <c r="E7">
-        <v>24.32</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="F7">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>2.06</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4642,48 +4656,48 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>45821.794745370367</v>
+        <v>45821.793587962966</v>
       </c>
       <c r="D8">
-        <v>35.369999999999997</v>
+        <v>19.93</v>
       </c>
       <c r="E8">
-        <v>35.44</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>7.52</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
-        <v>45821.785694444443</v>
+        <v>45821.796527777777</v>
       </c>
       <c r="D9">
-        <v>20.350000000000001</v>
+        <v>20.23</v>
       </c>
       <c r="E9">
-        <v>20.5</v>
+        <v>20.48</v>
       </c>
       <c r="F9">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <v>4.63</v>
@@ -4691,19 +4705,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>45821.792997685188</v>
+        <v>45821.785694444443</v>
       </c>
       <c r="D10">
-        <v>20.21</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E10">
-        <v>20.350000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="F10">
         <v>79</v>
@@ -4717,25 +4731,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>45821.796122685184</v>
+        <v>45821.792997685188</v>
       </c>
       <c r="D11">
-        <v>20.23</v>
+        <v>20.21</v>
       </c>
       <c r="E11">
         <v>20.350000000000001</v>
       </c>
       <c r="F11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>4.63</v>
@@ -4746,22 +4760,22 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>45821.796527777777</v>
+        <v>45821.796122685184</v>
       </c>
       <c r="D12">
         <v>20.23</v>
       </c>
       <c r="E12">
-        <v>20.48</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="F12">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>4.63</v>
@@ -4772,58 +4786,130 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>45821.793587962966</v>
+        <v>45822.545532407406</v>
       </c>
       <c r="D13">
-        <v>19.93</v>
+        <v>20.51</v>
       </c>
       <c r="E13">
-        <v>20.170000000000002</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="F13">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>0.45</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
-        <v>45821.788564814815</v>
+        <v>45822.87222222222</v>
       </c>
       <c r="D14">
-        <v>20.66</v>
+        <v>21.46</v>
       </c>
       <c r="E14">
-        <v>20.350000000000001</v>
+        <v>21.16</v>
       </c>
       <c r="F14">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H14">
-        <v>3.58</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45823.734027777777</v>
+      </c>
+      <c r="D15">
+        <v>25.89</v>
+      </c>
+      <c r="E15">
+        <v>26.45</v>
+      </c>
+      <c r="F15">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45821.786249999997</v>
+      </c>
+      <c r="D16">
+        <v>24.86</v>
+      </c>
+      <c r="E16">
+        <v>24.32</v>
+      </c>
+      <c r="F16">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45821.794745370367</v>
+      </c>
+      <c r="D17">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="E17">
+        <v>35.44</v>
+      </c>
+      <c r="F17">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>7.52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4838,7 +4924,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4906,7 +4992,7 @@
       </c>
       <c r="B7">
         <f>COUNTIF(Table1[ciudad],A7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4938,10 +5024,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61A0B1-09A1-449B-9D95-B3C7E815EE41}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4980,6 +5066,30 @@
       </c>
       <c r="B4">
         <v>20.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45822.545532407406</v>
+      </c>
+      <c r="B5">
+        <v>20.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45822.87222222222</v>
+      </c>
+      <c r="B6">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45823</v>
+      </c>
+      <c r="B7">
+        <v>25.89</v>
       </c>
     </row>
   </sheetData>
@@ -4995,8 +5105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254EC08D-5FA1-4085-9EA6-4B465348FC4E}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5019,7 +5129,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Table1[descripcion],A2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +5138,7 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Table1[descripcion],A3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5046,7 +5156,7 @@
       </c>
       <c r="B5">
         <f>COUNTIF(Table1[descripcion],A5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
